--- a/application/uploads/template_committe.xlsx
+++ b/application/uploads/template_committe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\www\seminar_dokter\application\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7363FC1B-61DB-41CC-A9C8-C081D9DAF030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919230AC-F200-48F0-BC57-53706C8D23C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DAF38C75-EAB7-4FBE-AACE-C6493CC2D61A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DAF38C75-EAB7-4FBE-AACE-C6493CC2D61A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -416,17 +416,17 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
